--- a/Benchmark-Models/Hass_PONE2017/Data/model1_data11.xlsx
+++ b/Benchmark-Models/Hass_PONE2017/Data/model1_data11.xlsx
@@ -282,16 +282,16 @@
         <v>15.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2885756033908119</v>
+        <v>0.2885635306989831</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3713173999776152</v>
+        <v>-0.370967658667751</v>
       </c>
       <c r="D2" t="n">
-        <v>0.18972233983217304</v>
+        <v>0.1897585633352455</v>
       </c>
       <c r="E2" t="n">
-        <v>0.18841783410203133</v>
+        <v>0.1885530526595178</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
